--- a/branches/update-identifiers/StructureDefinition-hiv-service-request-location.xlsx
+++ b/branches/update-identifiers/StructureDefinition-hiv-service-request-location.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1700" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2481" uniqueCount="487">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-06T14:06:21+00:00</t>
+    <t>2023-03-07T10:12:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -469,7 +469,7 @@
 </t>
   </si>
   <si>
-    <t>Slice based on the type of identifier</t>
+    <t>Slice based on the type of identifier.</t>
   </si>
   <si>
     <t>openAtEnd</t>
@@ -481,13 +481,13 @@
     <t>FiveWs.identifier</t>
   </si>
   <si>
-    <t>Location.identifier:PRN</t>
-  </si>
-  <si>
-    <t>PRN</t>
-  </si>
-  <si>
-    <t>Location.identifier:PRN.id</t>
+    <t>Location.identifier:XX</t>
+  </si>
+  <si>
+    <t>XX</t>
+  </si>
+  <si>
+    <t>Location.identifier:XX.id</t>
   </si>
   <si>
     <t>Location.identifier.id</t>
@@ -509,7 +509,7 @@
     <t>n/a</t>
   </si>
   <si>
-    <t>Location.identifier:PRN.extension</t>
+    <t>Location.identifier:XX.extension</t>
   </si>
   <si>
     <t>Location.identifier.extension</t>
@@ -531,7 +531,7 @@
     <t>Element.extension</t>
   </si>
   <si>
-    <t>Location.identifier:PRN.use</t>
+    <t>Location.identifier:XX.use</t>
   </si>
   <si>
     <t>Location.identifier.use</t>
@@ -564,7 +564,7 @@
     <t>Role.code or implied by context</t>
   </si>
   <si>
-    <t>Location.identifier:PRN.type</t>
+    <t>Location.identifier:XX.type</t>
   </si>
   <si>
     <t>Location.identifier.type</t>
@@ -598,7 +598,201 @@
     <t>Identifier.type</t>
   </si>
   <si>
-    <t>Location.identifier:PRN.system</t>
+    <t>Location.identifier:XX.type.id</t>
+  </si>
+  <si>
+    <t>Location.identifier.type.id</t>
+  </si>
+  <si>
+    <t>Location.identifier:XX.type.extension</t>
+  </si>
+  <si>
+    <t>Location.identifier.type.extension</t>
+  </si>
+  <si>
+    <t>Location.identifier:XX.type.coding</t>
+  </si>
+  <si>
+    <t>Location.identifier.type.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>Location.identifier:XX.type.coding.id</t>
+  </si>
+  <si>
+    <t>Location.identifier.type.coding.id</t>
+  </si>
+  <si>
+    <t>Location.identifier:XX.type.coding.extension</t>
+  </si>
+  <si>
+    <t>Location.identifier.type.coding.extension</t>
+  </si>
+  <si>
+    <t>Location.identifier:XX.type.coding.system</t>
+  </si>
+  <si>
+    <t>Location.identifier.type.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://terminology.hl7.org/CodeSystem/v2-0203</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>Location.identifier:XX.type.coding.version</t>
+  </si>
+  <si>
+    <t>Location.identifier.type.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>Location.identifier:XX.type.coding.code</t>
+  </si>
+  <si>
+    <t>Location.identifier.type.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>Location.identifier:XX.type.coding.display</t>
+  </si>
+  <si>
+    <t>Location.identifier.type.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>Location.identifier:XX.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t>Location.identifier.type.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Location.identifier:XX.type.text</t>
+  </si>
+  <si>
+    <t>Location.identifier.type.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>Location.identifier:XX.system</t>
   </si>
   <si>
     <t>Location.identifier.system</t>
@@ -628,7 +822,7 @@
     <t>II.root or Role.id.root</t>
   </si>
   <si>
-    <t>Location.identifier:PRN.value</t>
+    <t>Location.identifier:XX.value</t>
   </si>
   <si>
     <t>Location.identifier.value</t>
@@ -652,7 +846,7 @@
     <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
   </si>
   <si>
-    <t>Location.identifier:PRN.period</t>
+    <t>Location.identifier:XX.period</t>
   </si>
   <si>
     <t>Location.identifier.period</t>
@@ -674,7 +868,7 @@
     <t>Role.effectiveTime or implied by context</t>
   </si>
   <si>
-    <t>Location.identifier:PRN.assigner</t>
+    <t>Location.identifier:XX.assigner</t>
   </si>
   <si>
     <t>Location.identifier.assigner</t>
@@ -723,10 +917,6 @@
     <t>Location.operationalStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
     <t>The operational status of the location (typically only for a bed/room)</t>
   </si>
   <si>
@@ -862,6 +1052,238 @@
     <t>.addr</t>
   </si>
   <si>
+    <t>Location.address.id</t>
+  </si>
+  <si>
+    <t>Location.address.extension</t>
+  </si>
+  <si>
+    <t>Location.address.use</t>
+  </si>
+  <si>
+    <t>home | work | temp | old | billing - purpose of this address</t>
+  </si>
+  <si>
+    <t>The purpose of this address.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an address is current unless it explicitly says that it is temporary or old.</t>
+  </si>
+  <si>
+    <t>Allows an appropriate address to be chosen from a list of many.</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>The use of an address.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Address.use</t>
+  </si>
+  <si>
+    <t>unique(./use)</t>
+  </si>
+  <si>
+    <t>Location.address.type</t>
+  </si>
+  <si>
+    <t>postal | physical | both</t>
+  </si>
+  <si>
+    <t>Distinguishes between physical addresses (those you can visit) and mailing addresses (e.g. PO Boxes and care-of addresses). Most addresses are both.</t>
+  </si>
+  <si>
+    <t>The definition of Address states that "address is intended to describe postal addresses, not physical locations". However, many applications track whether an address has a dual purpose of being a location that can be visited as well as being a valid delivery destination, and Postal addresses are often used as proxies for physical locations (also see the [Location](http://hl7.org/fhir/R4/location.html#) resource).</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>The type of an address (physical / postal).</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/address-type|4.0.1</t>
+  </si>
+  <si>
+    <t>Address.type</t>
+  </si>
+  <si>
+    <t>Location.address.text</t>
+  </si>
+  <si>
+    <t>Text representation of the address</t>
+  </si>
+  <si>
+    <t>Specifies the entire address as it should be displayed e.g. on a postal label. This may be provided instead of or as well as the specific parts.</t>
+  </si>
+  <si>
+    <t>Can provide both a text representation and parts. Applications updating an address SHALL ensure that  when both text and parts are present,  no content is included in the text that isn't found in a part.</t>
+  </si>
+  <si>
+    <t>A renderable, unencoded form.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street, Erewhon 9132</t>
+  </si>
+  <si>
+    <t>Address.text</t>
+  </si>
+  <si>
+    <t>./formatted</t>
+  </si>
+  <si>
+    <t>Location.address.line</t>
+  </si>
+  <si>
+    <t>Street name, number, direction &amp; P.O. Box etc.</t>
+  </si>
+  <si>
+    <t>This component contains the house number, apartment number, street name, street direction,  P.O. Box number, delivery hints, and similar address information.</t>
+  </si>
+  <si>
+    <t>137 Nowhere Street</t>
+  </si>
+  <si>
+    <t>Address.line</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = AL]</t>
+  </si>
+  <si>
+    <t>Location.address.city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Municpality
+</t>
+  </si>
+  <si>
+    <t>Name of city, town etc.</t>
+  </si>
+  <si>
+    <t>The name of the city, town, suburb, village or other community or delivery center.</t>
+  </si>
+  <si>
+    <t>Erewhon</t>
+  </si>
+  <si>
+    <t>Address.city</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CTY]</t>
+  </si>
+  <si>
+    <t>Location.address.district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">County
+</t>
+  </si>
+  <si>
+    <t>District name (aka county)</t>
+  </si>
+  <si>
+    <t>The name of the administrative area (county).</t>
+  </si>
+  <si>
+    <t>District is sometimes known as county, but in some regions 'county' is used in place of city (municipality), so county name should be conveyed in city instead.</t>
+  </si>
+  <si>
+    <t>Madison</t>
+  </si>
+  <si>
+    <t>Address.district</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CNT | CPA]</t>
+  </si>
+  <si>
+    <t>Location.address.state</t>
+  </si>
+  <si>
+    <t>Province
+Territory</t>
+  </si>
+  <si>
+    <t>Sub-unit of country (abbreviations ok)</t>
+  </si>
+  <si>
+    <t>Sub-unit of a country with limited sovereignty in a federally organized country. A code may be used if codes are in common use (e.g. US 2 letter state codes).</t>
+  </si>
+  <si>
+    <t>Address.state</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = STA]</t>
+  </si>
+  <si>
+    <t>Location.address.postalCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zip
+</t>
+  </si>
+  <si>
+    <t>Postal code for area</t>
+  </si>
+  <si>
+    <t>A postal code designating a region defined by the postal service.</t>
+  </si>
+  <si>
+    <t>9132</t>
+  </si>
+  <si>
+    <t>Address.postalCode</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = ZIP]</t>
+  </si>
+  <si>
+    <t>Location.address.country</t>
+  </si>
+  <si>
+    <t>Country (e.g. can be ISO 3166 2 or 3 letter code)</t>
+  </si>
+  <si>
+    <t>Country - a nation as commonly understood or generally accepted.</t>
+  </si>
+  <si>
+    <t>ISO 3166 3 letter codes can be used in place of a human readable country name.</t>
+  </si>
+  <si>
+    <t>Address.country</t>
+  </si>
+  <si>
+    <t>AD.part[parttype = CNT]</t>
+  </si>
+  <si>
+    <t>Location.address.period</t>
+  </si>
+  <si>
+    <t>Time period when address was/is in use</t>
+  </si>
+  <si>
+    <t>Time period when address was/is in use.</t>
+  </si>
+  <si>
+    <t>Allows addresses to be placed in historical context.</t>
+  </si>
+  <si>
+    <t>&lt;valuePeriod xmlns="http://hl7.org/fhir"&gt;
+  &lt;start value="2010-03-23"/&gt;
+  &lt;end value="2010-07-01"/&gt;
+&lt;/valuePeriod&gt;</t>
+  </si>
+  <si>
+    <t>Address.period</t>
+  </si>
+  <si>
+    <t>./usablePeriod[type="IVL&lt;TS&gt;"]</t>
+  </si>
+  <si>
     <t>Location.physicalType</t>
   </si>
   <si>
@@ -1040,10 +1462,6 @@
   </si>
   <si>
     <t>Location.hoursOfOperation.allDay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
   </si>
   <si>
     <t>The Location is open all day</t>
@@ -1401,7 +1819,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL49"/>
+  <dimension ref="A1:AL72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1410,7 +1828,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.98046875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.6875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="42.98046875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
@@ -1429,7 +1847,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="39.97265625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
@@ -2548,7 +2966,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>77</v>
@@ -2658,7 +3076,7 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>83</v>
@@ -3200,7 +3618,7 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>83</v>
@@ -3212,35 +3630,31 @@
         <v>75</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>190</v>
+        <v>155</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>194</v>
+        <v>75</v>
       </c>
       <c r="S17" t="s" s="2">
         <v>75</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>195</v>
+        <v>75</v>
       </c>
       <c r="U17" t="s" s="2">
         <v>75</v>
@@ -3276,7 +3690,7 @@
         <v>75</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>76</v>
@@ -3288,10 +3702,10 @@
         <v>75</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>197</v>
+        <v>158</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>75</v>
@@ -3299,21 +3713,21 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>75</v>
@@ -3322,19 +3736,19 @@
         <v>75</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>154</v>
+        <v>129</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>202</v>
+        <v>132</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -3348,7 +3762,7 @@
         <v>75</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>203</v>
+        <v>75</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>75</v>
@@ -3372,34 +3786,34 @@
         <v>75</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>204</v>
+        <v>165</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>205</v>
+        <v>158</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>75</v>
@@ -3407,10 +3821,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3421,7 +3835,7 @@
         <v>76</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>75</v>
@@ -3433,16 +3847,20 @@
         <v>84</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+        <v>196</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="O19" t="s" s="2">
+        <v>198</v>
+      </c>
       <c r="P19" t="s" s="2">
         <v>75</v>
       </c>
@@ -3490,13 +3908,13 @@
         <v>75</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>75</v>
@@ -3505,7 +3923,7 @@
         <v>95</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>75</v>
@@ -3513,10 +3931,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -3536,20 +3954,18 @@
         <v>75</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>215</v>
+        <v>154</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>216</v>
+        <v>155</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>75</v>
@@ -3598,7 +4014,7 @@
         <v>75</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>219</v>
+        <v>157</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>76</v>
@@ -3610,10 +4026,10 @@
         <v>75</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>220</v>
+        <v>158</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>75</v>
@@ -3621,41 +4037,43 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>221</v>
+        <v>203</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>103</v>
+        <v>129</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
+        <v>130</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N21" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>132</v>
+      </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
         <v>75</v>
@@ -3680,57 +4098,57 @@
         <v>75</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>224</v>
+        <v>75</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>225</v>
+        <v>75</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>221</v>
+        <v>165</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>226</v>
+        <v>158</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>227</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>228</v>
+        <v>206</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3753,16 +4171,20 @@
         <v>84</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>229</v>
+        <v>97</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+        <v>208</v>
+      </c>
+      <c r="N22" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="O22" t="s" s="2">
+        <v>210</v>
+      </c>
       <c r="P22" t="s" s="2">
         <v>75</v>
       </c>
@@ -3771,7 +4193,7 @@
         <v>75</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>75</v>
+        <v>211</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>75</v>
@@ -3786,13 +4208,13 @@
         <v>75</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>232</v>
+        <v>75</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>233</v>
+        <v>75</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>75</v>
@@ -3810,7 +4232,7 @@
         <v>75</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>76</v>
@@ -3825,18 +4247,18 @@
         <v>95</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>158</v>
+        <v>213</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>227</v>
+        <v>75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>234</v>
+        <v>214</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3844,7 +4266,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>83</v>
@@ -3862,13 +4284,13 @@
         <v>154</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>235</v>
+        <v>216</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>236</v>
+        <v>217</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>237</v>
+        <v>218</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -3918,7 +4340,7 @@
         <v>75</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>76</v>
@@ -3933,7 +4355,7 @@
         <v>95</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>75</v>
@@ -3941,10 +4363,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3955,7 +4377,7 @@
         <v>76</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>75</v>
@@ -3964,22 +4386,20 @@
         <v>75</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>75</v>
@@ -3989,7 +4409,7 @@
         <v>75</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="T24" t="s" s="2">
         <v>75</v>
@@ -4028,13 +4448,13 @@
         <v>75</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>75</v>
@@ -4043,7 +4463,7 @@
         <v>95</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>75</v>
@@ -4051,10 +4471,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>244</v>
+        <v>229</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4080,14 +4500,14 @@
         <v>154</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>245</v>
+        <v>230</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>75</v>
@@ -4136,7 +4556,7 @@
         <v>75</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>76</v>
@@ -4151,7 +4571,7 @@
         <v>95</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>75</v>
@@ -4159,10 +4579,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4185,19 +4605,19 @@
         <v>84</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>103</v>
+        <v>237</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>252</v>
+        <v>240</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>75</v>
@@ -4222,13 +4642,13 @@
         <v>75</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>172</v>
+        <v>75</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>251</v>
+        <v>75</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>254</v>
+        <v>75</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>75</v>
@@ -4246,7 +4666,7 @@
         <v>75</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>76</v>
@@ -4261,18 +4681,18 @@
         <v>95</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>256</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4283,7 +4703,7 @@
         <v>76</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>75</v>
@@ -4295,16 +4715,20 @@
         <v>84</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+        <v>247</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>75</v>
       </c>
@@ -4328,13 +4752,13 @@
         <v>75</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>184</v>
+        <v>75</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>259</v>
+        <v>75</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>260</v>
+        <v>75</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>75</v>
@@ -4352,13 +4776,13 @@
         <v>75</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>75</v>
@@ -4367,18 +4791,18 @@
         <v>95</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>256</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4386,10 +4810,10 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>75</v>
@@ -4398,31 +4822,35 @@
         <v>75</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>263</v>
+        <v>97</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N28" s="2"/>
-      <c r="O28" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="O28" t="s" s="2">
+        <v>257</v>
+      </c>
       <c r="P28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>75</v>
+        <v>258</v>
       </c>
       <c r="S28" t="s" s="2">
         <v>75</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>75</v>
+        <v>259</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>75</v>
@@ -4458,13 +4886,13 @@
         <v>75</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI28" t="s" s="2">
         <v>75</v>
@@ -4473,7 +4901,7 @@
         <v>95</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>75</v>
@@ -4481,10 +4909,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4504,23 +4932,21 @@
         <v>75</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>268</v>
+        <v>154</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>272</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>75</v>
       </c>
@@ -4532,7 +4958,7 @@
         <v>75</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>75</v>
+        <v>267</v>
       </c>
       <c r="U29" t="s" s="2">
         <v>75</v>
@@ -4568,7 +4994,7 @@
         <v>75</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>76</v>
@@ -4583,7 +5009,7 @@
         <v>95</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>75</v>
@@ -4591,10 +5017,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4617,18 +5043,16 @@
         <v>84</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>179</v>
+        <v>272</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="N30" s="2"/>
-      <c r="O30" t="s" s="2">
-        <v>277</v>
-      </c>
+      <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>75</v>
       </c>
@@ -4652,13 +5076,13 @@
         <v>75</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>278</v>
+        <v>75</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>279</v>
+        <v>75</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>280</v>
+        <v>75</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>75</v>
@@ -4676,7 +5100,7 @@
         <v>75</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>76</v>
@@ -4691,18 +5115,18 @@
         <v>95</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>256</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -4722,21 +5146,21 @@
         <v>75</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N31" s="2"/>
-      <c r="O31" t="s" s="2">
-        <v>286</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>75</v>
       </c>
@@ -4784,7 +5208,7 @@
         <v>75</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>76</v>
@@ -4799,7 +5223,7 @@
         <v>95</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>75</v>
@@ -4807,10 +5231,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4827,19 +5251,19 @@
         <v>75</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>154</v>
+        <v>103</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>155</v>
+        <v>286</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>156</v>
+        <v>287</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -4866,13 +5290,13 @@
         <v>75</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>75</v>
+        <v>288</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>75</v>
+        <v>289</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>75</v>
@@ -4890,7 +5314,7 @@
         <v>75</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>157</v>
+        <v>285</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>76</v>
@@ -4902,32 +5326,32 @@
         <v>75</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>158</v>
+        <v>290</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>75</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>128</v>
+        <v>75</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>75</v>
@@ -4936,20 +5360,18 @@
         <v>75</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>129</v>
+        <v>194</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>130</v>
+        <v>293</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>132</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>75</v>
@@ -4974,13 +5396,13 @@
         <v>75</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>75</v>
+        <v>107</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>75</v>
+        <v>295</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>75</v>
+        <v>296</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>75</v>
@@ -4998,69 +5420,67 @@
         <v>75</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>165</v>
+        <v>292</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>158</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>75</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>291</v>
+        <v>75</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>84</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>129</v>
+        <v>154</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="O34" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>75</v>
       </c>
@@ -5108,22 +5528,22 @@
         <v>75</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>126</v>
+        <v>301</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>75</v>
@@ -5131,10 +5551,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5142,10 +5562,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>75</v>
@@ -5157,16 +5577,20 @@
         <v>75</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>296</v>
+        <v>154</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="P35" t="s" s="2">
         <v>75</v>
       </c>
@@ -5214,13 +5638,13 @@
         <v>75</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI35" t="s" s="2">
         <v>75</v>
@@ -5229,7 +5653,7 @@
         <v>95</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>75</v>
@@ -5237,10 +5661,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5248,7 +5672,7 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>83</v>
@@ -5260,19 +5684,21 @@
         <v>75</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>296</v>
+        <v>154</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>310</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>75</v>
       </c>
@@ -5320,10 +5746,10 @@
         <v>75</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>83</v>
@@ -5335,7 +5761,7 @@
         <v>95</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>75</v>
@@ -5343,10 +5769,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5366,19 +5792,23 @@
         <v>75</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>296</v>
+        <v>103</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="P37" t="s" s="2">
         <v>75</v>
       </c>
@@ -5402,13 +5832,13 @@
         <v>75</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>75</v>
+        <v>314</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>75</v>
+        <v>317</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>75</v>
@@ -5426,7 +5856,7 @@
         <v>75</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>76</v>
@@ -5441,18 +5871,18 @@
         <v>95</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>75</v>
+        <v>319</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5463,7 +5893,7 @@
         <v>76</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>75</v>
@@ -5475,20 +5905,16 @@
         <v>84</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>310</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>75</v>
       </c>
@@ -5512,13 +5938,13 @@
         <v>75</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>75</v>
+        <v>184</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>75</v>
+        <v>322</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>75</v>
+        <v>323</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>75</v>
@@ -5536,13 +5962,13 @@
         <v>75</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>75</v>
@@ -5551,18 +5977,18 @@
         <v>95</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>75</v>
+        <v>319</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5573,7 +5999,7 @@
         <v>76</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>75</v>
@@ -5585,18 +6011,16 @@
         <v>75</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>313</v>
+        <v>326</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="N39" s="2"/>
-      <c r="O39" t="s" s="2">
-        <v>316</v>
-      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>75</v>
       </c>
@@ -5644,13 +6068,13 @@
         <v>75</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>75</v>
@@ -5659,7 +6083,7 @@
         <v>95</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>75</v>
@@ -5667,10 +6091,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5678,10 +6102,10 @@
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>75</v>
@@ -5693,18 +6117,20 @@
         <v>75</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>283</v>
+        <v>331</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>320</v>
+        <v>333</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>334</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>335</v>
+      </c>
       <c r="P40" t="s" s="2">
         <v>75</v>
       </c>
@@ -5752,13 +6178,13 @@
         <v>75</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>75</v>
@@ -5767,7 +6193,7 @@
         <v>95</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>75</v>
@@ -5775,10 +6201,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5881,10 +6307,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5954,16 +6380,16 @@
         <v>75</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>75</v>
+        <v>162</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>75</v>
+        <v>163</v>
       </c>
       <c r="AD42" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>165</v>
@@ -5989,21 +6415,21 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>291</v>
+        <v>75</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>75</v>
@@ -6015,19 +6441,19 @@
         <v>84</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>292</v>
+        <v>340</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>293</v>
+        <v>341</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>132</v>
+        <v>342</v>
       </c>
       <c r="O43" t="s" s="2">
-        <v>138</v>
+        <v>343</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>75</v>
@@ -6040,7 +6466,7 @@
         <v>75</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>75</v>
+        <v>344</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>75</v>
@@ -6052,13 +6478,13 @@
         <v>75</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>75</v>
+        <v>172</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>75</v>
+        <v>345</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>75</v>
+        <v>346</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>75</v>
@@ -6076,22 +6502,22 @@
         <v>75</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>294</v>
+        <v>347</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>134</v>
+        <v>95</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>126</v>
+        <v>348</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>75</v>
@@ -6099,10 +6525,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>326</v>
+        <v>349</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6113,7 +6539,7 @@
         <v>76</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>75</v>
@@ -6122,18 +6548,20 @@
         <v>75</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K44" t="s" s="2">
         <v>103</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>327</v>
+        <v>350</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>352</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>75</v>
@@ -6146,7 +6574,7 @@
         <v>75</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>75</v>
+        <v>353</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>75</v>
@@ -6161,10 +6589,10 @@
         <v>172</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="AA44" t="s" s="2">
         <v>75</v>
@@ -6182,13 +6610,13 @@
         <v>75</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>326</v>
+        <v>356</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>75</v>
@@ -6197,7 +6625,7 @@
         <v>95</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>322</v>
+        <v>348</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>75</v>
@@ -6205,10 +6633,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6228,19 +6656,23 @@
         <v>75</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>332</v>
+        <v>154</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>333</v>
+        <v>358</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N45" s="2"/>
-      <c r="O45" s="2"/>
+        <v>359</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="O45" t="s" s="2">
+        <v>361</v>
+      </c>
       <c r="P45" t="s" s="2">
         <v>75</v>
       </c>
@@ -6252,7 +6684,7 @@
         <v>75</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>75</v>
+        <v>362</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>75</v>
@@ -6288,7 +6720,7 @@
         <v>75</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>76</v>
@@ -6303,7 +6735,7 @@
         <v>95</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>322</v>
+        <v>364</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>75</v>
@@ -6311,10 +6743,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>335</v>
+        <v>365</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6325,7 +6757,7 @@
         <v>76</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>75</v>
@@ -6334,16 +6766,16 @@
         <v>75</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>336</v>
+        <v>154</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>337</v>
+        <v>366</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>338</v>
+        <v>367</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6358,7 +6790,7 @@
         <v>75</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>75</v>
+        <v>368</v>
       </c>
       <c r="U46" t="s" s="2">
         <v>75</v>
@@ -6394,13 +6826,13 @@
         <v>75</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>335</v>
+        <v>369</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>75</v>
@@ -6409,7 +6841,7 @@
         <v>95</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>322</v>
+        <v>370</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>75</v>
@@ -6417,18 +6849,18 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>339</v>
+        <v>371</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>75</v>
+        <v>372</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>83</v>
@@ -6440,16 +6872,16 @@
         <v>75</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>336</v>
+        <v>154</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>340</v>
+        <v>373</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>341</v>
+        <v>374</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6464,7 +6896,7 @@
         <v>75</v>
       </c>
       <c r="T47" t="s" s="2">
-        <v>75</v>
+        <v>375</v>
       </c>
       <c r="U47" t="s" s="2">
         <v>75</v>
@@ -6500,7 +6932,7 @@
         <v>75</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>76</v>
@@ -6515,7 +6947,7 @@
         <v>95</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>322</v>
+        <v>377</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>75</v>
@@ -6523,18 +6955,18 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>342</v>
+        <v>378</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>75</v>
+        <v>379</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>83</v>
@@ -6546,18 +6978,20 @@
         <v>75</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K48" t="s" s="2">
         <v>154</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>381</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>382</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>75</v>
@@ -6570,7 +7004,7 @@
         <v>75</v>
       </c>
       <c r="T48" t="s" s="2">
-        <v>75</v>
+        <v>383</v>
       </c>
       <c r="U48" t="s" s="2">
         <v>75</v>
@@ -6606,7 +7040,7 @@
         <v>75</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>342</v>
+        <v>384</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>76</v>
@@ -6621,7 +7055,7 @@
         <v>95</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>158</v>
+        <v>385</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>75</v>
@@ -6629,21 +7063,21 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>75</v>
+        <v>387</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>75</v>
@@ -6652,21 +7086,19 @@
         <v>75</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>346</v>
+        <v>154</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>347</v>
+        <v>388</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>348</v>
+        <v>389</v>
       </c>
       <c r="N49" s="2"/>
-      <c r="O49" t="s" s="2">
-        <v>349</v>
-      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>75</v>
       </c>
@@ -6714,13 +7146,13 @@
         <v>75</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>345</v>
+        <v>390</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>75</v>
@@ -6729,9 +7161,2477 @@
         <v>95</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="P52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="P53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>424</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK55" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AL55" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="P57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="P61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="O63" s="2"/>
+      <c r="P63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="B64" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L64" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
+      <c r="P64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O65" s="2"/>
+      <c r="P65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>431</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="O66" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="P66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="P72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AL72" t="s" s="2">
         <v>75</v>
       </c>
     </row>

--- a/branches/update-identifiers/StructureDefinition-hiv-service-request-location.xlsx
+++ b/branches/update-identifiers/StructureDefinition-hiv-service-request-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T10:12:47+00:00</t>
+    <t>2023-03-07T10:15:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-hiv-service-request-location.xlsx
+++ b/branches/update-identifiers/StructureDefinition-hiv-service-request-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T10:15:46+00:00</t>
+    <t>2023-03-07T11:05:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-hiv-service-request-location.xlsx
+++ b/branches/update-identifiers/StructureDefinition-hiv-service-request-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T11:05:08+00:00</t>
+    <t>2023-03-07T11:15:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-hiv-service-request-location.xlsx
+++ b/branches/update-identifiers/StructureDefinition-hiv-service-request-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T11:15:07+00:00</t>
+    <t>2023-03-07T11:33:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-hiv-service-request-location.xlsx
+++ b/branches/update-identifiers/StructureDefinition-hiv-service-request-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T11:33:22+00:00</t>
+    <t>2023-03-07T11:34:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-hiv-service-request-location.xlsx
+++ b/branches/update-identifiers/StructureDefinition-hiv-service-request-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T11:34:06+00:00</t>
+    <t>2023-03-07T12:11:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-hiv-service-request-location.xlsx
+++ b/branches/update-identifiers/StructureDefinition-hiv-service-request-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T12:11:05+00:00</t>
+    <t>2023-03-07T14:32:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-hiv-service-request-location.xlsx
+++ b/branches/update-identifiers/StructureDefinition-hiv-service-request-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T14:32:58+00:00</t>
+    <t>2023-03-07T14:40:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-hiv-service-request-location.xlsx
+++ b/branches/update-identifiers/StructureDefinition-hiv-service-request-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T14:56:30+00:00</t>
+    <t>2023-03-07T15:06:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-hiv-service-request-location.xlsx
+++ b/branches/update-identifiers/StructureDefinition-hiv-service-request-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T15:06:57+00:00</t>
+    <t>2023-03-07T15:46:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-hiv-service-request-location.xlsx
+++ b/branches/update-identifiers/StructureDefinition-hiv-service-request-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T15:46:47+00:00</t>
+    <t>2023-03-07T15:55:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-hiv-service-request-location.xlsx
+++ b/branches/update-identifiers/StructureDefinition-hiv-service-request-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T15:55:51+00:00</t>
+    <t>2023-03-07T16:02:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-hiv-service-request-location.xlsx
+++ b/branches/update-identifiers/StructureDefinition-hiv-service-request-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:02:22+00:00</t>
+    <t>2023-03-07T16:10:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-hiv-service-request-location.xlsx
+++ b/branches/update-identifiers/StructureDefinition-hiv-service-request-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:10:56+00:00</t>
+    <t>2023-03-07T16:20:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-hiv-service-request-location.xlsx
+++ b/branches/update-identifiers/StructureDefinition-hiv-service-request-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:20:26+00:00</t>
+    <t>2023-03-07T16:27:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-hiv-service-request-location.xlsx
+++ b/branches/update-identifiers/StructureDefinition-hiv-service-request-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:27:46+00:00</t>
+    <t>2023-03-07T16:36:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-hiv-service-request-location.xlsx
+++ b/branches/update-identifiers/StructureDefinition-hiv-service-request-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:36:29+00:00</t>
+    <t>2023-03-07T16:37:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-hiv-service-request-location.xlsx
+++ b/branches/update-identifiers/StructureDefinition-hiv-service-request-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:37:52+00:00</t>
+    <t>2023-03-07T16:59:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/update-identifiers/StructureDefinition-hiv-service-request-location.xlsx
+++ b/branches/update-identifiers/StructureDefinition-hiv-service-request-location.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-07T16:59:55+00:00</t>
+    <t>2023-03-07T17:01:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
